--- a/ladyrowing/original_data/ladyrowing.xlsx
+++ b/ladyrowing/original_data/ladyrowing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/User/student/Documents/GitHub/athletics/ladyrowing/original_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25152D2B-6D71-9D4A-BC6E-4C8C423C8414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3709CEA4-79D6-2248-A3D0-3E6961887045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -185,9 +185,6 @@
   </si>
   <si>
     <t>E010245-002-99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1998-99 Tennessee Lady Volunteer rowing </t>
   </si>
   <si>
     <t>University of Tennessee Lady Volunteers rowing media guide, 1998-1999</t>
@@ -368,6 +365,9 @@
   </si>
   <si>
     <t>2011</t>
+  </si>
+  <si>
+    <t>1998-99 Tennessee Lady Volunteer rowing</t>
   </si>
 </sst>
 </file>
@@ -753,7 +753,7 @@
   <dimension ref="A1:U1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -1050,16 +1050,16 @@
         <v>51</v>
       </c>
       <c r="C5" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>50</v>
@@ -1086,7 +1086,7 @@
         <v>26</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P5" s="8" t="s">
         <v>27</v>
@@ -1113,22 +1113,22 @@
         <v>lady-vols-rowing_1999</v>
       </c>
       <c r="B6" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="D6" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="H6" s="15" t="s">
         <v>38</v>
@@ -1152,7 +1152,7 @@
         <v>26</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P6" s="8" t="s">
         <v>27</v>
@@ -1179,22 +1179,22 @@
         <v>lady-vols-rowing_2000</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>65</v>
       </c>
       <c r="H7" s="15" t="s">
         <v>38</v>
@@ -1218,7 +1218,7 @@
         <v>26</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P7" s="8" t="s">
         <v>27</v>
@@ -1245,22 +1245,22 @@
         <v>lady-vols-rowing_2001</v>
       </c>
       <c r="B8" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="D8" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="H8" s="15" t="s">
         <v>38</v>
@@ -1284,7 +1284,7 @@
         <v>26</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P8" s="8" t="s">
         <v>27</v>
@@ -1311,22 +1311,22 @@
         <v>lady-vols-rowing_2002</v>
       </c>
       <c r="B9" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="D9" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>73</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F9" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="H9" s="15" t="s">
         <v>38</v>
@@ -1350,7 +1350,7 @@
         <v>26</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P9" s="8" t="s">
         <v>27</v>
@@ -1377,22 +1377,22 @@
         <v>lady-vols-rowing_2003</v>
       </c>
       <c r="B10" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="D10" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>78</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H10" s="15" t="s">
         <v>38</v>
@@ -1416,7 +1416,7 @@
         <v>26</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P10" s="8" t="s">
         <v>27</v>
@@ -1443,22 +1443,22 @@
         <v>lady-vols-rowing_2004</v>
       </c>
       <c r="B11" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="D11" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>82</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="H11" s="15" t="s">
         <v>38</v>
@@ -1482,7 +1482,7 @@
         <v>26</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P11" s="8" t="s">
         <v>27</v>
@@ -1510,19 +1510,19 @@
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H12" s="15" t="s">
         <v>38</v>
@@ -1546,7 +1546,7 @@
         <v>26</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P12" s="8" t="s">
         <v>27</v>
@@ -1573,22 +1573,22 @@
         <v>lady-vols-rowing_2006</v>
       </c>
       <c r="B13" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>90</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="H13" s="15" t="s">
         <v>38</v>
@@ -1612,7 +1612,7 @@
         <v>26</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P13" s="8" t="s">
         <v>27</v>
@@ -1639,22 +1639,22 @@
         <v>lady-vols-rowing_2007</v>
       </c>
       <c r="B14" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="D14" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>95</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F14" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="H14" s="15" t="s">
         <v>38</v>
@@ -1678,7 +1678,7 @@
         <v>26</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P14" s="8" t="s">
         <v>27</v>
@@ -1705,22 +1705,22 @@
         <v>lady-vols-rowing_2008</v>
       </c>
       <c r="B15" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>100</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H15" s="15" t="s">
         <v>38</v>
@@ -1744,7 +1744,7 @@
         <v>26</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P15" s="8" t="s">
         <v>27</v>
@@ -1771,22 +1771,22 @@
         <v>lady-vols-rowing_2009</v>
       </c>
       <c r="B16" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H16" s="15" t="s">
         <v>38</v>
@@ -1810,7 +1810,7 @@
         <v>26</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P16" s="8" t="s">
         <v>27</v>
@@ -1837,22 +1837,22 @@
         <v>lady-vols-rowing_2010</v>
       </c>
       <c r="B17" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>108</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H17" s="15" t="s">
         <v>38</v>
@@ -1876,7 +1876,7 @@
         <v>26</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P17" s="8" t="s">
         <v>27</v>
@@ -1904,16 +1904,16 @@
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>111</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>45</v>
@@ -1940,7 +1940,7 @@
         <v>26</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P18" s="8" t="s">
         <v>27</v>
